--- a/Excel/main/_test2.xlsx
+++ b/Excel/main/_test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26505" windowHeight="15210"/>
+    <workbookView windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -24,6 +24,9 @@
     <t>xxxx</t>
   </si>
   <si>
+    <t>xxx</t>
+  </si>
+  <si>
     <t>x'x</t>
   </si>
   <si>
@@ -36,6 +39,12 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>long[]</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -63,6 +72,12 @@
     <t>value2</t>
   </si>
   <si>
+    <t>longValue</t>
+  </si>
+  <si>
+    <t>longValue2</t>
+  </si>
+  <si>
     <t>des</t>
   </si>
   <si>
@@ -88,6 +103,12 @@
   </si>
   <si>
     <t>[5,1221]</t>
+  </si>
+  <si>
+    <t>888888888888</t>
+  </si>
+  <si>
+    <t>[123456456123,789456456789]</t>
   </si>
   <si>
     <t>的肌肤 地方</t>
@@ -113,9 +134,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -127,15 +148,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,19 +186,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -171,16 +207,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,21 +261,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -227,7 +271,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,36 +287,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,187 +301,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,11 +495,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,8 +513,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,15 +549,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -548,6 +566,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -556,21 +592,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -579,10 +600,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,138 +612,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1073,25 +1097,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="28.375" customWidth="1"/>
-    <col min="5" max="5" width="31.25" customWidth="1"/>
-    <col min="6" max="6" width="20.125" customWidth="1"/>
-    <col min="7" max="7" width="23.625" customWidth="1"/>
-    <col min="8" max="8" width="19.25" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="16.25" customWidth="1"/>
+    <col min="2" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="6" max="6" width="28.375" customWidth="1"/>
+    <col min="7" max="7" width="31.25" customWidth="1"/>
+    <col min="8" max="8" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="23.625" customWidth="1"/>
+    <col min="10" max="10" width="19.25" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1099,10 +1124,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -1117,77 +1142,95 @@
         <v>1</v>
       </c>
       <c r="J1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
         <v>3</v>
       </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1195,31 +1238,37 @@
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4">
         <v>5.122</v>
       </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4">
+      <c r="K4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
-        <v>29</v>
+      <c r="M4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/main/_test2.xlsx
+++ b/Excel/main/_test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12615"/>
+    <workbookView windowWidth="32565" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -127,6 +127,27 @@
   </si>
   <si>
     <t>[1,0]</t>
+  </si>
+  <si>
+    <t>k'k</t>
+  </si>
+  <si>
+    <t>j'j</t>
+  </si>
+  <si>
+    <t>[-5,-1588994477]</t>
+  </si>
+  <si>
+    <t>-888888888888</t>
+  </si>
+  <si>
+    <t>[-1,-445566778899]</t>
+  </si>
+  <si>
+    <t>[0.945,0.878655]</t>
+  </si>
+  <si>
+    <t>[1,0,0]</t>
   </si>
 </sst>
 </file>
@@ -136,8 +157,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -148,32 +169,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,13 +260,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -199,94 +306,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,13 +322,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,97 +436,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,67 +502,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,30 +513,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -549,6 +546,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -564,11 +579,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,10 +621,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,133 +633,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,15 +1118,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="4" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="33" customWidth="1"/>
     <col min="6" max="6" width="28.375" customWidth="1"/>
     <col min="7" max="7" width="31.25" customWidth="1"/>
@@ -1230,7 +1253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1269,6 +1292,100 @@
       </c>
       <c r="M4" t="s">
         <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <f>+H5+I5+H10</f>
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5">
+        <v>6</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>556</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6">
+        <v>5.122</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="14:14">
+      <c r="N7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/main/_test2.xlsx
+++ b/Excel/main/_test2.xlsx
@@ -1121,7 +1121,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>

--- a/Excel/main/_test2.xlsx
+++ b/Excel/main/_test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32565" windowHeight="12615"/>
+    <workbookView windowWidth="29805" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -45,10 +45,10 @@
     <t>long[]</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>string[]</t>
+    <t>str</t>
+  </si>
+  <si>
+    <t>str[]</t>
   </si>
   <si>
     <t>v2i</t>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>b2</t>
+  </si>
+  <si>
+    <t>ecs</t>
+  </si>
+  <si>
+    <t>ec</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
   <si>
     <t>[5,1221]</t>
@@ -1118,13 +1127,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
@@ -1253,139 +1262,174 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>55</v>
-      </c>
+    <row r="4" spans="3:13">
       <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
       <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="G4" t="s">
+      <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
+      <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="I4" t="s">
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="J4">
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5">
         <v>5.122</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <f>+H6+I6+H11</f>
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>556</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
         <v>35</v>
       </c>
-      <c r="L4">
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7">
+        <v>5.122</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="M4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" t="s">
-        <v>37</v>
+      <c r="M7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <f>+H5+I5+H10</f>
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <v>6</v>
-      </c>
-      <c r="K5">
-        <v>6</v>
-      </c>
-      <c r="L5">
-        <v>6</v>
-      </c>
-      <c r="M5">
-        <v>6</v>
-      </c>
-      <c r="N5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>556</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
+    <row r="8" spans="14:14">
+      <c r="N8" t="s">
         <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6">
-        <v>5.122</v>
-      </c>
-      <c r="K6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="14:14">
-      <c r="N7" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/main/_test2.xlsx
+++ b/Excel/main/_test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29805" windowHeight="12660"/>
+    <workbookView windowWidth="32715" windowHeight="14490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
@@ -33,6 +33,9 @@
     <t>xx</t>
   </si>
   <si>
+    <t>hh</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -69,6 +72,12 @@
     <t>bool[]</t>
   </si>
   <si>
+    <t>int[][]</t>
+  </si>
+  <si>
+    <t>str[][]</t>
+  </si>
+  <si>
     <t>value2</t>
   </si>
   <si>
@@ -102,6 +111,12 @@
     <t>b2</t>
   </si>
   <si>
+    <t>arrs</t>
+  </si>
+  <si>
+    <t>arr2s</t>
+  </si>
+  <si>
     <t>ecs</t>
   </si>
   <si>
@@ -111,6 +126,9 @@
     <t>c</t>
   </si>
   <si>
+    <t>cs</t>
+  </si>
+  <si>
     <t>[5,1221]</t>
   </si>
   <si>
@@ -139,6 +157,12 @@
   </si>
   <si>
     <t>k'k</t>
+  </si>
+  <si>
+    <t>[[5,9],[6,8]]</t>
+  </si>
+  <si>
+    <t>[[ss,gg],[df,hh]]</t>
   </si>
   <si>
     <t>j'j</t>
@@ -1127,10 +1151,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1146,9 +1170,11 @@
     <col min="10" max="10" width="19.25" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
     <col min="12" max="12" width="16.25" customWidth="1"/>
+    <col min="15" max="15" width="16.75" customWidth="1"/>
+    <col min="16" max="16" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1185,119 +1211,143 @@
       <c r="M1" t="s">
         <v>4</v>
       </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="3:13">
+    <row r="4" spans="3:16">
       <c r="C4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1305,40 +1355,46 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J5">
         <v>5.122</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="O5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:14">
@@ -1380,7 +1436,7 @@
         <v>6</v>
       </c>
       <c r="N6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1391,45 +1447,45 @@
         <v>556</v>
       </c>
       <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="I7" t="s">
         <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" t="s">
-        <v>37</v>
       </c>
       <c r="J7">
         <v>5.122</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" t="s">
         <v>46</v>
-      </c>
-      <c r="N7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="14:14">
       <c r="N8" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/main/_test2.xlsx
+++ b/Excel/main/_test2.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32715" windowHeight="14490"/>
+    <workbookView windowHeight="14505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -186,7 +199,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -202,55 +215,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,6 +272,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -340,7 +332,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,49 +368,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,121 +506,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,21 +559,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -593,6 +591,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,148 +664,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -806,52 +819,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1153,8 +1166,8 @@
   <sheetPr/>
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>

--- a/Excel/main/_test2.xlsx
+++ b/Excel/main/_test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14505"/>
+    <workbookView windowWidth="31860" windowHeight="14385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,10 +67,10 @@
     <t>str[]</t>
   </si>
   <si>
-    <t>v2i</t>
-  </si>
-  <si>
-    <t>v2i[]</t>
+    <t>int2</t>
+  </si>
+  <si>
+    <t>int2[]</t>
   </si>
   <si>
     <t>float</t>
@@ -1166,8 +1166,8 @@
   <sheetPr/>
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>

--- a/Excel/main/_test2.xlsx
+++ b/Excel/main/_test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31860" windowHeight="14385"/>
+    <workbookView windowWidth="31860" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -40,6 +40,9 @@
     <t>xxx</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>x'x</t>
   </si>
   <si>
@@ -97,6 +100,9 @@
     <t>longValue</t>
   </si>
   <si>
+    <t>intv</t>
+  </si>
+  <si>
     <t>longValue2</t>
   </si>
   <si>
@@ -131,6 +137,12 @@
   </si>
   <si>
     <t>ecs</t>
+  </si>
+  <si>
+    <t>ecg</t>
+  </si>
+  <si>
+    <t>cg</t>
   </si>
   <si>
     <t>ec</t>
@@ -1164,30 +1176,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="33" customWidth="1"/>
-    <col min="6" max="6" width="28.375" customWidth="1"/>
-    <col min="7" max="7" width="31.25" customWidth="1"/>
-    <col min="8" max="8" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="23.625" customWidth="1"/>
-    <col min="10" max="10" width="19.25" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
-    <col min="12" max="12" width="16.25" customWidth="1"/>
-    <col min="15" max="15" width="16.75" customWidth="1"/>
-    <col min="16" max="16" width="20.875" customWidth="1"/>
+    <col min="4" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
+    <col min="7" max="7" width="28.375" customWidth="1"/>
+    <col min="8" max="8" width="31.25" customWidth="1"/>
+    <col min="9" max="9" width="20.125" customWidth="1"/>
+    <col min="10" max="10" width="23.625" customWidth="1"/>
+    <col min="11" max="11" width="19.25" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="13" max="13" width="16.25" customWidth="1"/>
+    <col min="16" max="16" width="16.75" customWidth="1"/>
+    <col min="17" max="17" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1198,10 +1210,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -1219,30 +1231,33 @@
         <v>1</v>
       </c>
       <c r="L1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
       <c r="P1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -1268,99 +1283,108 @@
       <c r="M2" t="s">
         <v>17</v>
       </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s">
         <v>18</v>
       </c>
       <c r="P2" t="s">
         <v>19</v>
       </c>
+      <c r="Q2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" t="s">
         <v>31</v>
       </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="3:16">
+    <row r="4" spans="3:17">
       <c r="C4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="N4" t="s">
+        <v>38</v>
       </c>
       <c r="P4" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1368,49 +1392,52 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5">
         <v>5.122</v>
       </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5">
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
-        <v>45</v>
-      </c>
       <c r="N5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:15">
       <c r="B6">
         <v>5</v>
       </c>
@@ -1421,23 +1448,23 @@
         <v>5</v>
       </c>
       <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>6</v>
       </c>
-      <c r="G6">
-        <f>+H6+I6+H11</f>
+      <c r="H6">
+        <f>+I6+J6+I11</f>
         <v>10</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
       </c>
       <c r="I6">
         <v>5</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K6">
         <v>6</v>
@@ -1448,11 +1475,14 @@
       <c r="M6">
         <v>6</v>
       </c>
-      <c r="N6" t="s">
-        <v>49</v>
+      <c r="N6">
+        <v>6</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1460,45 +1490,48 @@
         <v>556</v>
       </c>
       <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7">
+        <v>5.122</v>
+      </c>
+      <c r="L7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7">
-        <v>5.122</v>
-      </c>
-      <c r="K7" t="s">
+    </row>
+    <row r="8" spans="15:15">
+      <c r="O8" t="s">
         <v>53</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="14:14">
-      <c r="N8" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/main/_test2.xlsx
+++ b/Excel/main/_test2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31860" windowHeight="13230"/>
+    <workbookView windowWidth="22395" windowHeight="11265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1179,7 +1179,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1340,7 +1340,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="3:17">
+    <row r="4" spans="1:17">
       <c r="C4" t="s">
         <v>35</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="1:17">
       <c r="B6">
         <v>5</v>
       </c>
@@ -1458,13 +1458,13 @@
       </c>
       <c r="H6">
         <f>+I6+J6+I11</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K6">
         <v>6</v>
@@ -1473,7 +1473,7 @@
         <v>6</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>6</v>
@@ -1482,7 +1482,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="15:15">
+    <row r="8" spans="1:17">
       <c r="O8" t="s">
         <v>53</v>
       </c>
